--- a/Logs/Constance Gray Log.xlsx
+++ b/Logs/Constance Gray Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/189c356a9f831ceb/Personal/Return to school/COMP 2005/richochetGit/comp2005-winter20-group7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/189c356a9f831ceb/Personal/Return to school/COMP 2005/richochetGit/FreshCopyMarch16/comp2005-winter20-group7/Logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5596F2D-4609-4589-8281-8EE922D57158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{A5596F2D-4609-4589-8281-8EE922D57158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE6F5A96-4E8A-4765-BF6D-0E27D8174376}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5E7DF0E4-FBB6-459F-9392-44B1B8B4C055}"/>
+    <workbookView xWindow="7200" yWindow="3300" windowWidth="21600" windowHeight="11715" xr2:uid="{5E7DF0E4-FBB6-459F-9392-44B1B8B4C055}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Task</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>Created player image tokens in color and black and white</t>
+  </si>
+  <si>
+    <t>Created the token generator</t>
+  </si>
+  <si>
+    <t>Created the images for the token shapes and numbers</t>
+  </si>
+  <si>
+    <t>Logical Architecture Diagram</t>
   </si>
 </sst>
 </file>
@@ -417,26 +426,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D917C8-8F2A-4E78-B014-EAE094EB87D4}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -444,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -452,7 +461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -460,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -468,7 +477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -476,7 +485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -484,12 +493,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
